--- a/example_data/EPA/label_corrected/059639-00152-20160603_2018-12-08_125322.xlsx
+++ b/example_data/EPA/label_corrected/059639-00152-20160603_2018-12-08_125322.xlsx
@@ -737,7 +737,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -2141,7 +2141,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -2795,7 +2795,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G97" t="inlineStr"/>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G98" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G99" t="inlineStr"/>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G100" t="inlineStr"/>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G105" t="inlineStr"/>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G107" t="inlineStr"/>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G108" t="inlineStr"/>
@@ -3208,7 +3208,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G111" t="inlineStr"/>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G112" t="inlineStr"/>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G141" t="inlineStr"/>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G142" t="inlineStr"/>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
@@ -4434,7 +4434,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Off Target Movement || Application Instructions</t>
+          <t>application instructions || off target movement</t>
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G160" t="inlineStr"/>
@@ -4588,7 +4588,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation || Application Instructions</t>
+          <t>irrigation || application instructions || chemigation</t>
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
@@ -4620,7 +4620,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G162" t="inlineStr"/>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G165" t="inlineStr"/>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation</t>
         </is>
       </c>
       <c r="G166" t="inlineStr"/>
@@ -4787,7 +4787,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G167" t="inlineStr"/>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G168" t="inlineStr"/>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G169" t="inlineStr"/>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G170" t="inlineStr"/>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G171" t="inlineStr"/>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G180" t="inlineStr"/>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G226" t="inlineStr"/>
@@ -7224,7 +7224,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G255" t="inlineStr"/>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G295" t="inlineStr"/>
@@ -11100,7 +11100,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G395" t="inlineStr"/>
@@ -11179,7 +11179,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G398" t="inlineStr"/>
@@ -11650,7 +11650,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G416" t="inlineStr"/>
@@ -11867,7 +11867,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G425" t="inlineStr"/>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G429" t="inlineStr"/>
@@ -12251,7 +12251,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G441" t="inlineStr"/>
@@ -12289,7 +12289,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G442" t="inlineStr"/>
@@ -12322,7 +12322,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G443" t="inlineStr"/>
@@ -12624,7 +12624,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G454" t="inlineStr"/>
@@ -12653,7 +12653,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G455" t="inlineStr"/>
@@ -12821,7 +12821,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G462" t="inlineStr"/>
@@ -12872,7 +12872,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G464" t="inlineStr"/>
@@ -12905,7 +12905,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G465" t="inlineStr"/>
@@ -12939,7 +12939,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G466" t="inlineStr"/>
@@ -12968,7 +12968,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G467" t="inlineStr"/>
@@ -13000,7 +13000,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G468" t="inlineStr"/>
@@ -13332,7 +13332,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G482" t="inlineStr"/>
@@ -13382,7 +13382,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G484" t="inlineStr"/>
@@ -13409,7 +13409,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G485" t="inlineStr"/>
@@ -13465,7 +13465,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Pollinator</t>
+          <t>pollinator</t>
         </is>
       </c>
       <c r="G487" t="inlineStr"/>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G489" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G490" t="inlineStr"/>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G491" t="inlineStr"/>
@@ -13635,7 +13635,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>134_Non-agriculture_Use_Requirements</t>
+          <t>134_non-agriculture_use_requirements</t>
         </is>
       </c>
       <c r="G493" t="inlineStr"/>
@@ -14413,7 +14413,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G524" t="inlineStr"/>
@@ -14452,7 +14452,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G525" t="inlineStr"/>
@@ -14530,7 +14530,7 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G527" t="inlineStr"/>
@@ -14560,7 +14560,7 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G528" t="inlineStr"/>
@@ -14591,7 +14591,7 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G529" t="inlineStr"/>
@@ -14645,7 +14645,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>Off Target Movement || Application Instructions</t>
+          <t>application instructions || off target movement</t>
         </is>
       </c>
       <c r="G531" t="inlineStr"/>
@@ -14676,7 +14676,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G532" t="inlineStr"/>
@@ -14713,7 +14713,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation || Application Instructions</t>
+          <t>irrigation || application instructions || chemigation</t>
         </is>
       </c>
       <c r="G533" t="inlineStr"/>
@@ -14745,7 +14745,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G534" t="inlineStr"/>
@@ -14804,7 +14804,7 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G536" t="inlineStr"/>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G537" t="inlineStr"/>
@@ -14881,7 +14881,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>Safety Procedures || Irrigation</t>
+          <t>safety procedures || irrigation</t>
         </is>
       </c>
       <c r="G538" t="inlineStr"/>
@@ -14912,7 +14912,7 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G539" t="inlineStr"/>
@@ -14942,7 +14942,7 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G540" t="inlineStr"/>
@@ -14994,7 +14994,7 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G541" t="inlineStr"/>
@@ -15023,7 +15023,7 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G542" t="inlineStr"/>
@@ -15069,7 +15069,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G543" t="inlineStr"/>
@@ -15101,7 +15101,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G544" t="inlineStr"/>
@@ -15132,7 +15132,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G545" t="inlineStr"/>
@@ -15161,7 +15161,7 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G546" t="inlineStr"/>
@@ -15189,7 +15189,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G547" t="inlineStr"/>
@@ -15230,7 +15230,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G548" t="inlineStr"/>
@@ -15789,7 +15789,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G569" t="inlineStr"/>
@@ -16004,7 +16004,7 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G577" t="inlineStr"/>
@@ -16242,7 +16242,7 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G586" t="inlineStr"/>
@@ -17060,7 +17060,7 @@
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G615" t="inlineStr"/>
@@ -17170,7 +17170,7 @@
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G619" t="inlineStr"/>
@@ -17201,7 +17201,7 @@
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G620" t="inlineStr"/>
@@ -17229,7 +17229,7 @@
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G621" t="inlineStr"/>
@@ -17270,7 +17270,7 @@
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G622" t="inlineStr"/>
@@ -17576,7 +17576,7 @@
       </c>
       <c r="F634" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G634" t="inlineStr"/>
@@ -17882,7 +17882,7 @@
       </c>
       <c r="F646" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G646" t="inlineStr"/>
@@ -18769,7 +18769,7 @@
       </c>
       <c r="F677" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G677" t="inlineStr"/>
@@ -19399,7 +19399,7 @@
       </c>
       <c r="F700" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G700" t="inlineStr"/>
@@ -19500,7 +19500,7 @@
       </c>
       <c r="F704" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G704" t="inlineStr"/>
@@ -19991,7 +19991,7 @@
       </c>
       <c r="F723" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G723" t="inlineStr"/>
@@ -20305,7 +20305,7 @@
       </c>
       <c r="F734" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G734" t="inlineStr"/>
@@ -20406,7 +20406,7 @@
       </c>
       <c r="F738" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G738" t="inlineStr"/>
@@ -20438,7 +20438,7 @@
       </c>
       <c r="F739" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G739" t="inlineStr"/>
@@ -20472,7 +20472,7 @@
       </c>
       <c r="F740" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G740" t="inlineStr"/>
@@ -20505,7 +20505,7 @@
       </c>
       <c r="F741" t="inlineStr">
         <is>
-          <t>Off Target Movement || Application Instructions</t>
+          <t>application instructions || off target movement</t>
         </is>
       </c>
       <c r="G741" t="inlineStr"/>
@@ -21244,7 +21244,7 @@
       </c>
       <c r="F768" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G768" t="inlineStr"/>
@@ -21323,7 +21323,7 @@
       </c>
       <c r="F771" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G771" t="inlineStr"/>
